--- a/REGULAR/RE-ENCODE/re encode/New folder/BURAZON, CARIDAD.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/New folder/BURAZON, CARIDAD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>VL(5-0-00)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1493,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>280.64</v>
+        <v>281.89</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1500,7 +1503,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>281.86</v>
+        <v>282.11</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3368,13 +3371,15 @@
         <v>45108</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3385,7 +3390,9 @@
       <c r="A97" s="40">
         <v>45139</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -3394,10 +3401,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
